--- a/doc/RAB Kematangan Buah.xlsx
+++ b/doc/RAB Kematangan Buah.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimas\OneDrive\Documents\GitHub\skripsi_faris19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimas\OneDrive\Documents\GitHub\skripsi_faris19\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6183C92-10B8-4A98-9F8D-6EF9276B320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76557EC4-A431-4A2D-800C-C28B1163C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Mini Voltmeter</t>
+  </si>
+  <si>
+    <t>Ongkir</t>
   </si>
 </sst>
 </file>
@@ -594,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,14 +671,14 @@
         <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>95000</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>95000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,13 +1114,21 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>40000</v>
+      </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,7 +1177,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="6">
         <f>SUM(E2:E32)</f>
-        <v>667900</v>
+        <v>802900</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BED64CD-86E4-4959-BED6-5F3FC3C5E212}">
   <dimension ref="P5:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="R24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
